--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thijs Kroft\Documents\Bouwkunde\Minor Spatial Computing\spatial_computing\spatial_computing-2\data\relationships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cobyb\Desktop\Desktop icons\Minor Spatial Computing\Github Tan\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D4484-46A1-4E85-BAB9-695993740ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E2FEAF-5CA2-48E8-8C48-DAE79CC942D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>space_name</t>
+  </si>
+  <si>
+    <t>football_proximity</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -362,14 +365,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -378,50 +381,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -436,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -486,21 +446,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -516,7 +467,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -815,12 +766,12 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
@@ -828,7 +779,7 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -856,7 +807,9 @@
       <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22"/>
+      <c r="I1" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -881,10 +834,12 @@
       <c r="G2" s="6">
         <v>0.5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="6">
         <v>0.9</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -909,10 +864,12 @@
       <c r="G3" s="8">
         <v>0.5</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="8">
         <v>0.8</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -937,10 +894,12 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="8">
         <v>0.9</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
       <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -965,10 +924,12 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="8">
         <v>0.8</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
       <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -993,10 +954,12 @@
       <c r="G6" s="8">
         <v>0.8</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="8">
         <v>0.9</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
       <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1021,10 +984,12 @@
       <c r="G7" s="8">
         <v>0.8</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="8">
         <v>0.8</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1049,10 +1014,12 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="8">
         <v>0.3</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
       <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1077,10 +1044,12 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.3</v>
+      </c>
       <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1105,10 +1074,12 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1133,10 +1104,12 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1161,10 +1134,12 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2"/>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
       <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1189,10 +1164,12 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1217,10 +1194,12 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2"/>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1245,10 +1224,12 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
       <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1273,10 +1254,12 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2"/>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
       <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1301,10 +1284,12 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
       <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1329,10 +1314,12 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="8">
         <v>0.2</v>
       </c>
-      <c r="I18" s="2"/>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
       <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1357,10 +1344,12 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2"/>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
       <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1385,10 +1374,12 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="8">
         <v>0.3</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="8">
+        <v>0.2</v>
+      </c>
       <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1399,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="8">
         <v>0.3</v>
@@ -1413,10 +1404,12 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2"/>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
       <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1441,10 +1434,12 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="8">
         <v>0.2</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
       <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1469,10 +1464,12 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2"/>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.2</v>
+      </c>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1497,10 +1494,12 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="8">
         <v>0.7</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
       <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1525,38 +1524,42 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="8">
         <v>0.1</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="B26" s="17">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
         <v>0.4</v>
       </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2"/>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.3</v>
+      </c>
       <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1591,5 +1594,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE0B580-9B7D-45AE-9BF9-87BAC0897E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F15BB-E525-4F19-B2D5-ED4FFC1FA4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
+    <workbookView xWindow="13008" yWindow="552" windowWidth="17280" windowHeight="9420" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,7 +482,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,15 +811,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691859B3-309C-4810-BC4D-A39C70B98C25}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
@@ -831,7 +830,7 @@
     <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
@@ -859,9 +858,10 @@
       <c r="I1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -883,15 +883,16 @@
       <c r="G2" s="6">
         <v>0.5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0.9</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0.7</v>
       </c>
       <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
@@ -913,15 +914,16 @@
       <c r="G3" s="8">
         <v>0.5</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>0.8</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>0.7</v>
       </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
@@ -943,15 +945,16 @@
       <c r="G4" s="8">
         <v>0</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>0.9</v>
       </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
@@ -973,15 +976,16 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>0.8</v>
       </c>
-      <c r="I5" s="18">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="17">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1003,15 +1007,16 @@
       <c r="G6" s="8">
         <v>0.8</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>0.9</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>0.5</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1033,15 +1038,16 @@
       <c r="G7" s="8">
         <v>0.8</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>0.8</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0.5</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
@@ -1063,15 +1069,16 @@
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>0.3</v>
       </c>
-      <c r="I8" s="18">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
@@ -1093,15 +1100,16 @@
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="17">
         <v>0.8</v>
       </c>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1123,15 +1131,16 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="17">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
@@ -1153,15 +1162,16 @@
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="17">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1183,15 +1193,16 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="18">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
@@ -1213,15 +1224,16 @@
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H13" s="17">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
@@ -1243,15 +1255,16 @@
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
@@ -1273,15 +1286,16 @@
       <c r="G15" s="8">
         <v>0</v>
       </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H15" s="17">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>20</v>
       </c>
@@ -1303,15 +1317,16 @@
       <c r="G16" s="8">
         <v>0</v>
       </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1333,15 +1348,16 @@
       <c r="G17" s="8">
         <v>0</v>
       </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -1363,15 +1379,16 @@
       <c r="G18" s="8">
         <v>0</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>0.2</v>
       </c>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1393,15 +1410,16 @@
       <c r="G19" s="8">
         <v>0</v>
       </c>
-      <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -1423,15 +1441,16 @@
       <c r="G20" s="8">
         <v>0</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="17">
         <v>0.3</v>
       </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>25</v>
       </c>
@@ -1453,15 +1472,16 @@
       <c r="G21" s="8">
         <v>0</v>
       </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>26</v>
       </c>
@@ -1483,15 +1503,16 @@
       <c r="G22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="17">
         <v>0.2</v>
       </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>27</v>
       </c>
@@ -1513,15 +1534,16 @@
       <c r="G23" s="8">
         <v>0</v>
       </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>28</v>
       </c>
@@ -1543,15 +1565,16 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <v>0.7</v>
       </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>29</v>
       </c>
@@ -1573,45 +1596,47 @@
       <c r="G25" s="8">
         <v>0</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <v>0.1</v>
       </c>
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="17">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="19">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
+      <c r="B26" s="18">
+        <v>0</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
         <v>0.4</v>
       </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="21">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <v>0</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1621,7 +1646,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1631,7 +1656,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC569A8-2CB2-4AAB-A6AC-B099BC8A4E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147502F6-DD8C-454A-9AEC-EA693C21F814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -57,19 +57,10 @@
     <t>student_housing</t>
   </si>
   <si>
-    <t>co_cooking_A</t>
-  </si>
-  <si>
     <t>assisted_living</t>
   </si>
   <si>
-    <t>co_cooking_B</t>
-  </si>
-  <si>
     <t>starter_housing</t>
-  </si>
-  <si>
-    <t>co_cooking_C</t>
   </si>
   <si>
     <t>co_working</t>
@@ -753,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691859B3-309C-4810-BC4D-A39C70B98C25}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -799,19 +790,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -860,34 +851,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F3" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H3" s="11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I3" s="15">
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -901,19 +892,19 @@
         <v>0.9</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0.7</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G4" s="11">
         <v>0.9</v>
       </c>
       <c r="H4" s="11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="15">
         <v>0</v>
@@ -936,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="3">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="15">
-        <v>0</v>
+      <c r="I5" s="2">
+        <v>0.01</v>
       </c>
       <c r="J5" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15">
         <v>0</v>
@@ -965,7 +956,6 @@
       <c r="L5" s="15">
         <v>0</v>
       </c>
-      <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -975,31 +965,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E6" s="3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.8</v>
       </c>
-      <c r="G6" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.5</v>
-      </c>
       <c r="I6" s="15">
         <v>0</v>
       </c>
-      <c r="J6" s="15">
-        <v>0.5</v>
+      <c r="J6" s="2">
+        <v>0.01</v>
       </c>
       <c r="K6" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
         <v>0</v>
@@ -1010,64 +1000,67 @@
         <v>11</v>
       </c>
       <c r="B7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.7</v>
-      </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E7" s="3">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G7" s="11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H7" s="11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.01</v>
+      </c>
       <c r="L7" s="15">
         <v>0</v>
       </c>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.9</v>
-      </c>
       <c r="D8" s="3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="11">
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.01</v>
+      <c r="I8" s="15">
+        <v>0</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
@@ -1075,45 +1068,46 @@
       <c r="K8" s="15">
         <v>0</v>
       </c>
-      <c r="L8" s="15">
-        <v>0</v>
-      </c>
+      <c r="L8" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
+      <c r="B9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.01</v>
       </c>
       <c r="J9" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1122,17 +1116,17 @@
         <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D10" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.3</v>
       </c>
-      <c r="E10" s="3">
-        <v>0.2</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
@@ -1143,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.01</v>
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
       </c>
       <c r="L10" s="15">
         <v>0</v>
@@ -1161,16 +1155,16 @@
         <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D11" s="3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -1187,50 +1181,49 @@
       <c r="J11" s="15">
         <v>0</v>
       </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N11" s="14"/>
+      <c r="K11" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="B12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1241,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D13" s="3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>0.3</v>
@@ -1253,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.5</v>
       </c>
       <c r="L13" s="15">
         <v>0</v>
@@ -1277,16 +1270,16 @@
         <v>18</v>
       </c>
       <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.7</v>
-      </c>
       <c r="E14" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1303,50 +1296,52 @@
       <c r="J14" s="15">
         <v>0</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="L14" s="15">
-        <v>0</v>
-      </c>
+      <c r="K14" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>0.3</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
       <c r="H15" s="11">
         <v>0</v>
       </c>
-      <c r="I15" s="15">
-        <v>0</v>
+      <c r="I15" s="2">
+        <v>0.01</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K15" s="15">
         <v>0</v>
       </c>
-      <c r="L15" s="2">
-        <v>0.01</v>
-      </c>
+      <c r="L15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1356,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
         <v>0</v>
@@ -1376,38 +1371,37 @@
       <c r="I16" s="15">
         <v>0</v>
       </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="J16" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="15">
         <v>0.5</v>
       </c>
       <c r="L16" s="15">
         <v>0</v>
       </c>
-      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C17" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H17" s="11">
         <v>0</v>
@@ -1418,11 +1412,11 @@
       <c r="J17" s="15">
         <v>0</v>
       </c>
-      <c r="K17" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0.01</v>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <v>0</v>
       </c>
       <c r="N17" s="14"/>
     </row>
@@ -1434,19 +1428,19 @@
         <v>0.2</v>
       </c>
       <c r="C18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>0.2</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.1</v>
-      </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H18" s="11">
         <v>0</v>
@@ -1455,7 +1449,7 @@
         <v>0.01</v>
       </c>
       <c r="J18" s="15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K18" s="15">
         <v>0</v>
@@ -1463,7 +1457,6 @@
       <c r="L18" s="15">
         <v>0</v>
       </c>
-      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1473,59 +1466,60 @@
         <v>0</v>
       </c>
       <c r="C19" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="3">
         <v>0.3</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H19" s="11">
         <v>0</v>
       </c>
       <c r="I19" s="15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J19" s="2">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="K19" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L19" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="12">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
         <v>0.4</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
         <v>0</v>
       </c>
       <c r="I20" s="15">
@@ -1535,125 +1529,9 @@
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="J21" s="15">
-        <v>0</v>
-      </c>
-      <c r="K21" s="15">
-        <v>0</v>
-      </c>
-      <c r="L21" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="K22" s="15">
-        <v>0</v>
-      </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="N22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-      <c r="C23" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="12">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15">
-        <v>0</v>
-      </c>
-      <c r="J23" s="15">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="L23" s="15">
         <v>0</v>
       </c>
     </row>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cobyb\Desktop\Desktop icons\Minor Spatial Computing\Github Tan\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147502F6-DD8C-454A-9AEC-EA693C21F814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBD6C0-73CB-456F-9972-EE7A510BB927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>penthouse_factor</t>
-  </si>
-  <si>
-    <t>street_sight</t>
   </si>
   <si>
     <t>student_housing</t>
@@ -380,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,6 +425,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,32 +744,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691859B3-309C-4810-BC4D-A39C70B98C25}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -787,27 +786,45 @@
         <v>4</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -825,27 +842,45 @@
         <v>0.5</v>
       </c>
       <c r="G2" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="10">
         <v>0.5</v>
       </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
       <c r="I2" s="15">
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="15">
         <v>0.5</v>
       </c>
-      <c r="L2" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -863,27 +898,45 @@
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
         <v>0</v>
       </c>
       <c r="I3" s="15">
         <v>0</v>
       </c>
       <c r="J3" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -901,27 +954,45 @@
         <v>0.8</v>
       </c>
       <c r="G4" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="11">
         <v>0.5</v>
       </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
       <c r="I4" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="15">
         <v>0.5</v>
       </c>
       <c r="K4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -939,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
       </c>
       <c r="J5" s="15">
         <v>0</v>
@@ -953,13 +1024,31 @@
       <c r="K5" s="15">
         <v>0</v>
       </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="14">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -977,27 +1066,45 @@
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
         <v>0.8</v>
       </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.01</v>
+      <c r="H6" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
       </c>
       <c r="K6" s="15">
         <v>0</v>
       </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>0.6</v>
@@ -1017,26 +1124,43 @@
       <c r="G7" s="11">
         <v>0</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="15">
         <v>0</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14">
+        <v>0</v>
+      </c>
+      <c r="P7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1056,7 +1180,7 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="15">
         <v>0</v>
       </c>
       <c r="I8" s="15">
@@ -1065,17 +1189,34 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>0.01</v>
@@ -1096,10 +1237,10 @@
         <v>0.01</v>
       </c>
       <c r="H9" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1107,13 +1248,31 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9" s="14">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1133,26 +1292,43 @@
       <c r="G10" s="11">
         <v>0</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.01</v>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
       </c>
-      <c r="L10" s="15">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L10" s="14">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1172,25 +1348,43 @@
       <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="15">
         <v>0</v>
       </c>
       <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="L11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="P11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0</v>
+      </c>
+      <c r="R11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>0.3</v>
@@ -1210,7 +1404,7 @@
       <c r="G12" s="11">
         <v>0</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="15">
         <v>0</v>
       </c>
       <c r="I12" s="15">
@@ -1219,16 +1413,34 @@
       <c r="J12" s="15">
         <v>0</v>
       </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0</v>
+      </c>
+      <c r="R12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -1246,28 +1458,45 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
         <v>0</v>
       </c>
       <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="15">
-        <v>0</v>
-      </c>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1287,26 +1516,43 @@
       <c r="G14" s="11">
         <v>0</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="15">
         <v>0</v>
       </c>
       <c r="I14" s="15">
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>0.2</v>
@@ -1324,28 +1570,45 @@
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.5</v>
       </c>
       <c r="J15" s="15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
         <v>0</v>
       </c>
-      <c r="L15" s="15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L15" s="14">
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1365,25 +1628,43 @@
       <c r="G16" s="11">
         <v>0</v>
       </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.5</v>
       </c>
+      <c r="J16" s="15">
+        <v>0.5</v>
+      </c>
       <c r="K16" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
         <v>0.4</v>
@@ -1401,28 +1682,45 @@
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
         <v>0</v>
       </c>
       <c r="I17" s="15">
         <v>0</v>
       </c>
-      <c r="J17" s="15">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="R17" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
         <v>0.2</v>
@@ -1440,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
       </c>
       <c r="J18" s="15">
         <v>0</v>
@@ -1454,13 +1752,31 @@
       <c r="K18" s="15">
         <v>0</v>
       </c>
-      <c r="L18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L18" s="14">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="14">
+        <v>0</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -1478,28 +1794,45 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
         <v>0.3</v>
       </c>
-      <c r="J19" s="2">
-        <v>0.01</v>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
       </c>
       <c r="K19" s="15">
         <v>0</v>
       </c>
-      <c r="L19" s="15">
-        <v>0</v>
-      </c>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="14">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="12">
         <v>0</v>
@@ -1519,19 +1852,37 @@
       <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="15">
         <v>0</v>
       </c>
       <c r="I20" s="15">
         <v>0</v>
       </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>0</v>
+      </c>
+      <c r="R20" s="14">
         <v>0</v>
       </c>
     </row>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cobyb\Desktop\Desktop icons\Minor Spatial Computing\Github Tan\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBBD6C0-73CB-456F-9972-EE7A510BB927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C08A84-9B62-4D4C-8663-CD86A46E441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +755,7 @@
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.88671875" customWidth="1"/>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="14">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="M3" s="14">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="P11" s="14">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J15" s="15">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="14">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="R17" s="14">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R19" s="14">
         <v>0</v>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanda\Work\spatial_computing\data\relationships\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cobyb\Desktop\Desktop icons\Minor Spatial Computing\Github Tan\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE0B580-9B7D-45AE-9BF9-87BAC0897E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA76D11-48A8-44A5-ADAB-A4953C4E713D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -57,19 +57,10 @@
     <t>student_housing</t>
   </si>
   <si>
-    <t>co_cooking_A</t>
-  </si>
-  <si>
     <t>assisted_living</t>
   </si>
   <si>
-    <t>co_cooking_B</t>
-  </si>
-  <si>
     <t>starter_housing</t>
-  </si>
-  <si>
-    <t>co_cooking_C</t>
   </si>
   <si>
     <t>co_working</t>
@@ -812,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691859B3-309C-4810-BC4D-A39C70B98C25}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,10 +824,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -857,7 +848,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J1" s="16"/>
     </row>
@@ -866,28 +857,28 @@
         <v>6</v>
       </c>
       <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="17">
-        <v>0.9</v>
-      </c>
       <c r="I2" s="17">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -896,28 +887,28 @@
         <v>7</v>
       </c>
       <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.5</v>
-      </c>
       <c r="H3" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I3" s="18">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J3" s="16"/>
     </row>
@@ -926,25 +917,25 @@
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G4" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="18">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="18">
         <v>0</v>
@@ -956,25 +947,25 @@
         <v>9</v>
       </c>
       <c r="B5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="18">
         <v>0.7</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>0.8</v>
       </c>
       <c r="I5" s="18">
         <v>0</v>
@@ -986,28 +977,28 @@
         <v>10</v>
       </c>
       <c r="B6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
       </c>
       <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
         <v>0.7</v>
       </c>
-      <c r="G6" s="8">
-        <v>0.8</v>
-      </c>
       <c r="H6" s="18">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="I6" s="18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="16"/>
     </row>
@@ -1016,28 +1007,28 @@
         <v>11</v>
       </c>
       <c r="B7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H7" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I7" s="18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="16"/>
     </row>
@@ -1046,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="B8" s="7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E8" s="8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
       <c r="H8" s="18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="18">
         <v>0</v>
@@ -1076,19 +1067,19 @@
         <v>13</v>
       </c>
       <c r="B9" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1097,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="18">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J9" s="16"/>
     </row>
@@ -1106,19 +1097,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
         <v>0.3</v>
       </c>
-      <c r="C10" s="8">
-        <v>0.6</v>
-      </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F10" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1136,19 +1127,19 @@
         <v>15</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E11" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="8">
         <v>0.5</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -1166,16 +1157,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C12" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E12" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -1199,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
@@ -1226,19 +1217,19 @@
         <v>18</v>
       </c>
       <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0.7</v>
-      </c>
       <c r="F14" s="8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
@@ -1256,25 +1247,25 @@
         <v>19</v>
       </c>
       <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
         <v>0.3</v>
       </c>
-      <c r="C15" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
         <v>0.2</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0</v>
       </c>
       <c r="I15" s="18">
         <v>0</v>
@@ -1292,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E16" s="8">
         <v>1</v>
@@ -1316,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="B17" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C17" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E17" s="8">
         <v>1</v>
       </c>
       <c r="F17" s="8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I17" s="18">
         <v>0</v>
@@ -1346,25 +1337,25 @@
         <v>22</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
       </c>
       <c r="D18" s="8">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
       <c r="F18" s="8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
       </c>
       <c r="H18" s="18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="18">
         <v>0</v>
@@ -1376,25 +1367,25 @@
         <v>23</v>
       </c>
       <c r="B19" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C19" s="8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E19" s="8">
         <v>1</v>
       </c>
       <c r="F19" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19" s="18">
         <v>0</v>
@@ -1406,25 +1397,25 @@
         <v>24</v>
       </c>
       <c r="B20" s="7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="8">
         <v>1</v>
       </c>
       <c r="F20" s="8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
       </c>
       <c r="H20" s="18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="18">
         <v>0</v>
@@ -1436,25 +1427,25 @@
         <v>25</v>
       </c>
       <c r="B21" s="7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D21" s="8">
         <v>0.3</v>
       </c>
       <c r="E21" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G21" s="8">
         <v>0</v>
       </c>
       <c r="H21" s="18">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I21" s="18">
         <v>0</v>
@@ -1466,180 +1457,90 @@
         <v>26</v>
       </c>
       <c r="B22" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="19">
+        <v>0</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
         <v>0.4</v>
       </c>
-      <c r="D22" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="7">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21">
         <v>0</v>
       </c>
       <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
-      <c r="J25" s="16"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="21">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cobyb\Desktop\Desktop icons\Minor Spatial Computing\Github Tan\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C08A84-9B62-4D4C-8663-CD86A46E441D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30450B0-3093-4A33-8091-18091A3C4F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>east_o</t>
+  </si>
+  <si>
+    <t>street_sight</t>
   </si>
 </sst>
 </file>
@@ -744,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691859B3-309C-4810-BC4D-A39C70B98C25}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,17 +759,17 @@
     <col min="2" max="2" width="7.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="5" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -783,46 +786,49 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -839,25 +845,25 @@
         <v>0.6</v>
       </c>
       <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>0.5</v>
       </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
       <c r="I2" s="15">
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="15">
         <v>0.5</v>
       </c>
-      <c r="L2" s="14">
-        <v>0</v>
+      <c r="L2" s="15">
+        <v>0.5</v>
       </c>
       <c r="M2" s="14">
         <v>0</v>
@@ -877,8 +883,11 @@
       <c r="R2" s="14">
         <v>0</v>
       </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -895,12 +904,12 @@
         <v>0.7</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -912,12 +921,12 @@
       <c r="K3" s="15">
         <v>0</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="15">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
         <v>0.8</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
       <c r="N3" s="14">
         <v>0</v>
       </c>
@@ -933,8 +942,11 @@
       <c r="R3" s="14">
         <v>0</v>
       </c>
+      <c r="S3" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -951,24 +963,24 @@
         <v>0.7</v>
       </c>
       <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>0.8</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>0.5</v>
       </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
       <c r="I4" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="15">
         <v>0.5</v>
       </c>
       <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L4" s="15">
         <v>0</v>
       </c>
       <c r="M4" s="14">
@@ -989,8 +1001,11 @@
       <c r="R4" s="14">
         <v>0</v>
       </c>
+      <c r="S4" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1007,15 +1022,15 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="15">
@@ -1024,7 +1039,7 @@
       <c r="K5" s="15">
         <v>0</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="15">
         <v>0</v>
       </c>
       <c r="M5" s="14">
@@ -1045,8 +1060,11 @@
       <c r="R5" s="14">
         <v>0</v>
       </c>
+      <c r="S5" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1063,24 +1081,24 @@
         <v>0.4</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>0.8</v>
       </c>
-      <c r="H6" s="15">
+      <c r="I6" s="15">
         <v>0.2</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="J6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="15">
         <v>0</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="15">
         <v>0</v>
       </c>
       <c r="M6" s="14">
@@ -1101,8 +1119,11 @@
       <c r="R6" s="14">
         <v>0</v>
       </c>
+      <c r="S6" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1121,30 +1142,30 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>0</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="14">
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
         <v>0</v>
       </c>
       <c r="M7" s="14">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
         <v>0.3</v>
       </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
       <c r="O7" s="14">
         <v>0</v>
       </c>
@@ -1157,8 +1178,11 @@
       <c r="R7" s="14">
         <v>0</v>
       </c>
+      <c r="S7" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1177,10 +1201,10 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
         <v>0</v>
       </c>
       <c r="I8" s="15">
@@ -1189,10 +1213,10 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
         <v>0</v>
       </c>
       <c r="M8" s="14">
@@ -1213,8 +1237,11 @@
       <c r="R8" s="14">
         <v>0</v>
       </c>
+      <c r="S8" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1231,13 +1258,13 @@
         <v>0.01</v>
       </c>
       <c r="F9" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>0.01</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1248,7 +1275,7 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="2">
         <v>0</v>
       </c>
       <c r="M9" s="14">
@@ -1269,8 +1296,11 @@
       <c r="R9" s="14">
         <v>0</v>
       </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1289,33 +1319,33 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="15">
         <v>0</v>
       </c>
       <c r="M10" s="14">
         <v>0</v>
       </c>
       <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="14">
         <v>0.3</v>
       </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
       <c r="P10" s="14">
         <v>0</v>
       </c>
@@ -1325,8 +1355,11 @@
       <c r="R10" s="14">
         <v>0</v>
       </c>
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1343,24 +1376,24 @@
         <v>0.5</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14">
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
         <v>0</v>
       </c>
       <c r="M11" s="14">
@@ -1370,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
@@ -1381,8 +1414,11 @@
       <c r="R11" s="14">
         <v>0</v>
       </c>
+      <c r="S11" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1399,12 +1435,12 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
         <v>0</v>
       </c>
       <c r="I12" s="15">
@@ -1413,10 +1449,10 @@
       <c r="J12" s="15">
         <v>0</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="14">
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
         <v>0</v>
       </c>
       <c r="M12" s="14">
@@ -1426,19 +1462,22 @@
         <v>0</v>
       </c>
       <c r="O12" s="14">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
         <v>0.3</v>
       </c>
-      <c r="P12" s="14">
-        <v>0</v>
-      </c>
       <c r="Q12" s="14">
         <v>0</v>
       </c>
       <c r="R12" s="14">
         <v>0</v>
       </c>
+      <c r="S12" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1455,24 +1494,24 @@
         <v>0.3</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
         <v>0</v>
       </c>
       <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15">
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
         <v>0</v>
       </c>
       <c r="M13" s="14">
@@ -1485,16 +1524,19 @@
         <v>0</v>
       </c>
       <c r="P13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14">
         <v>0.3</v>
       </c>
-      <c r="Q13" s="14">
-        <v>0</v>
-      </c>
       <c r="R13" s="14">
         <v>0</v>
       </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1513,24 +1555,24 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
         <v>0</v>
       </c>
       <c r="I14" s="15">
         <v>0</v>
       </c>
       <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
         <v>0.3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>0.2</v>
       </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
       <c r="M14" s="14">
         <v>0</v>
       </c>
@@ -1549,8 +1591,11 @@
       <c r="R14" s="14">
         <v>0</v>
       </c>
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1569,22 +1614,22 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="15">
-        <v>1</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
       </c>
       <c r="J15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="15">
         <v>0</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="15">
         <v>0</v>
       </c>
       <c r="M15" s="14">
@@ -1605,8 +1650,11 @@
       <c r="R15" s="14">
         <v>0</v>
       </c>
+      <c r="S15" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1625,22 +1673,22 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>0.5</v>
       </c>
-      <c r="J16" s="15">
+      <c r="K16" s="15">
         <v>0.5</v>
       </c>
-      <c r="K16" s="15">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14">
+      <c r="L16" s="15">
         <v>0</v>
       </c>
       <c r="M16" s="14">
@@ -1661,8 +1709,11 @@
       <c r="R16" s="14">
         <v>0</v>
       </c>
+      <c r="S16" s="14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1679,24 +1730,24 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
         <v>0</v>
       </c>
       <c r="I17" s="15">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
-        <v>0</v>
-      </c>
-      <c r="L17" s="14">
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15">
         <v>0</v>
       </c>
       <c r="M17" s="14">
@@ -1712,13 +1763,16 @@
         <v>0</v>
       </c>
       <c r="Q17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="14">
+        <v>1</v>
+      </c>
+      <c r="S17" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1735,15 +1789,15 @@
         <v>0.2</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
         <v>0</v>
       </c>
       <c r="J18" s="15">
@@ -1752,7 +1806,7 @@
       <c r="K18" s="15">
         <v>0</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="15">
         <v>0</v>
       </c>
       <c r="M18" s="14">
@@ -1771,10 +1825,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="14">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1793,22 +1850,22 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
         <v>0.3</v>
       </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="15">
         <v>0</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="15">
         <v>0</v>
       </c>
       <c r="M19" s="14">
@@ -1824,13 +1881,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="14">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14">
         <v>0.5</v>
       </c>
-      <c r="R19" s="14">
+      <c r="S19" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1849,22 +1909,22 @@
       <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
         <v>0</v>
       </c>
       <c r="I20" s="15">
         <v>0</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="15">
-        <v>0</v>
-      </c>
-      <c r="L20" s="14">
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
         <v>0</v>
       </c>
       <c r="M20" s="14">
@@ -1883,6 +1943,9 @@
         <v>0</v>
       </c>
       <c r="R20" s="14">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
         <v>0</v>
       </c>
     </row>

--- a/data/relationships/relative_preferences.xlsx
+++ b/data/relationships/relative_preferences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cobyb\Desktop\Desktop icons\Minor Spatial Computing\Github Tan\spatial_computing\data\relationships\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30450B0-3093-4A33-8091-18091A3C4F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35102F1F-7501-423B-9A43-6B88B680D1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8385FF60-FA25-4234-BC55-F180054B2F53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>sunlight_access</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>east_o</t>
-  </si>
-  <si>
-    <t>street_sight</t>
   </si>
 </sst>
 </file>
@@ -747,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691859B3-309C-4810-BC4D-A39C70B98C25}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,17 +756,17 @@
     <col min="2" max="2" width="7.77734375" customWidth="1"/>
     <col min="3" max="3" width="7.109375" customWidth="1"/>
     <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="5" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
@@ -786,49 +783,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="H1" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="I1" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="16" t="s">
         <v>27</v>
       </c>
+      <c r="L1" s="17" t="s">
+        <v>6</v>
+      </c>
       <c r="M1" s="17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -845,25 +839,25 @@
         <v>0.6</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
         <v>0.5</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="10">
         <v>0.5</v>
       </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
       <c r="I2" s="15">
         <v>0</v>
       </c>
       <c r="J2" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K2" s="15">
         <v>0.5</v>
       </c>
-      <c r="L2" s="15">
-        <v>0.5</v>
+      <c r="L2" s="14">
+        <v>0</v>
       </c>
       <c r="M2" s="14">
         <v>0</v>
@@ -883,11 +877,8 @@
       <c r="R2" s="14">
         <v>0</v>
       </c>
-      <c r="S2" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -904,12 +895,12 @@
         <v>0.7</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
         <v>0</v>
       </c>
       <c r="I3" s="15">
@@ -921,11 +912,11 @@
       <c r="K3" s="15">
         <v>0</v>
       </c>
-      <c r="L3" s="15">
-        <v>0</v>
+      <c r="L3" s="14">
+        <v>0.8</v>
       </c>
       <c r="M3" s="14">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
         <v>0</v>
@@ -942,11 +933,8 @@
       <c r="R3" s="14">
         <v>0</v>
       </c>
-      <c r="S3" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -963,24 +951,24 @@
         <v>0.7</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
         <v>0.8</v>
       </c>
-      <c r="H4" s="11">
+      <c r="G4" s="11">
         <v>0.5</v>
       </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
       <c r="I4" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="15">
         <v>0.5</v>
       </c>
       <c r="K4" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14">
         <v>0</v>
       </c>
       <c r="M4" s="14">
@@ -1001,11 +989,8 @@
       <c r="R4" s="14">
         <v>0</v>
       </c>
-      <c r="S4" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1022,15 +1007,15 @@
         <v>0.5</v>
       </c>
       <c r="F5" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
         <v>0</v>
       </c>
       <c r="J5" s="15">
@@ -1039,7 +1024,7 @@
       <c r="K5" s="15">
         <v>0</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>0</v>
       </c>
       <c r="M5" s="14">
@@ -1060,11 +1045,8 @@
       <c r="R5" s="14">
         <v>0</v>
       </c>
-      <c r="S5" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1081,24 +1063,24 @@
         <v>0.4</v>
       </c>
       <c r="F6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
         <v>0.8</v>
       </c>
-      <c r="I6" s="15">
+      <c r="H6" s="15">
         <v>0.2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
         <v>0</v>
       </c>
       <c r="K6" s="15">
         <v>0</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>0</v>
       </c>
       <c r="M6" s="14">
@@ -1119,11 +1101,8 @@
       <c r="R6" s="14">
         <v>0</v>
       </c>
-      <c r="S6" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1142,29 +1121,29 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
         <v>0</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
       </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
         <v>0</v>
       </c>
       <c r="M7" s="14">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N7" s="14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="14">
         <v>0</v>
@@ -1178,11 +1157,8 @@
       <c r="R7" s="14">
         <v>0</v>
       </c>
-      <c r="S7" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1201,10 +1177,10 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
         <v>0</v>
       </c>
       <c r="I8" s="15">
@@ -1213,10 +1189,10 @@
       <c r="J8" s="15">
         <v>0</v>
       </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14">
         <v>0</v>
       </c>
       <c r="M8" s="14">
@@ -1237,11 +1213,8 @@
       <c r="R8" s="14">
         <v>0</v>
       </c>
-      <c r="S8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1258,13 +1231,13 @@
         <v>0.01</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G9" s="2">
         <v>0.01</v>
       </c>
       <c r="H9" s="2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
@@ -1275,7 +1248,7 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="14">
         <v>0</v>
       </c>
       <c r="M9" s="14">
@@ -1296,11 +1269,8 @@
       <c r="R9" s="14">
         <v>0</v>
       </c>
-      <c r="S9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1319,32 +1289,32 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
         <v>0</v>
       </c>
       <c r="K10" s="15">
         <v>0</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>0</v>
       </c>
       <c r="M10" s="14">
         <v>0</v>
       </c>
       <c r="N10" s="14">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O10" s="14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P10" s="14">
         <v>0</v>
@@ -1355,11 +1325,8 @@
       <c r="R10" s="14">
         <v>0</v>
       </c>
-      <c r="S10" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1376,24 +1343,24 @@
         <v>0.5</v>
       </c>
       <c r="F11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
         <v>0</v>
       </c>
       <c r="I11" s="15">
         <v>0</v>
       </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14">
         <v>0</v>
       </c>
       <c r="M11" s="14">
@@ -1403,10 +1370,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="14">
         <v>0</v>
@@ -1414,11 +1381,8 @@
       <c r="R11" s="14">
         <v>0</v>
       </c>
-      <c r="S11" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1435,37 +1399,37 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="14">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14">
         <v>0.3</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="14">
-        <v>0</v>
-      </c>
-      <c r="N12" s="14">
-        <v>0</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0</v>
-      </c>
       <c r="P12" s="14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="14">
         <v>0</v>
@@ -1473,11 +1437,8 @@
       <c r="R12" s="14">
         <v>0</v>
       </c>
-      <c r="S12" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1494,24 +1455,24 @@
         <v>0.3</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
         <v>0</v>
       </c>
       <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14">
         <v>0</v>
       </c>
       <c r="M13" s="14">
@@ -1524,19 +1485,16 @@
         <v>0</v>
       </c>
       <c r="P13" s="14">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q13" s="14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R13" s="14">
         <v>0</v>
       </c>
-      <c r="S13" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1555,24 +1513,24 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
         <v>0</v>
       </c>
       <c r="I14" s="15">
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="15">
         <v>0.3</v>
       </c>
-      <c r="L14" s="2">
+      <c r="K14" s="2">
         <v>0.2</v>
       </c>
+      <c r="L14" s="14">
+        <v>0</v>
+      </c>
       <c r="M14" s="14">
         <v>0</v>
       </c>
@@ -1591,11 +1549,8 @@
       <c r="R14" s="14">
         <v>0</v>
       </c>
-      <c r="S14" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1614,22 +1569,22 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
       </c>
       <c r="J15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
         <v>0</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>0</v>
       </c>
       <c r="M15" s="14">
@@ -1650,11 +1605,8 @@
       <c r="R15" s="14">
         <v>0</v>
       </c>
-      <c r="S15" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1673,22 +1625,22 @@
       <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
         <v>0.5</v>
       </c>
+      <c r="J16" s="15">
+        <v>0.5</v>
+      </c>
       <c r="K16" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
         <v>0</v>
       </c>
       <c r="M16" s="14">
@@ -1709,11 +1661,8 @@
       <c r="R16" s="14">
         <v>0</v>
       </c>
-      <c r="S16" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1730,49 +1679,46 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="14">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="14">
         <v>1</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14">
-        <v>0</v>
-      </c>
-      <c r="N17" s="14">
-        <v>0</v>
-      </c>
-      <c r="O17" s="14">
-        <v>0</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>0</v>
-      </c>
       <c r="R17" s="14">
-        <v>1</v>
-      </c>
-      <c r="S17" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1789,15 +1735,15 @@
         <v>0.2</v>
       </c>
       <c r="F18" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
         <v>0</v>
       </c>
       <c r="J18" s="15">
@@ -1806,7 +1752,7 @@
       <c r="K18" s="15">
         <v>0</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>0</v>
       </c>
       <c r="M18" s="14">
@@ -1825,13 +1771,10 @@
         <v>0</v>
       </c>
       <c r="R18" s="14">
-        <v>0</v>
-      </c>
-      <c r="S18" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1850,22 +1793,22 @@
       <c r="F19" s="3">
         <v>0</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
         <v>0.3</v>
       </c>
-      <c r="J19" s="2">
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
         <v>0</v>
       </c>
       <c r="K19" s="15">
         <v>0</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="14">
         <v>0</v>
       </c>
       <c r="M19" s="14">
@@ -1881,16 +1824,13 @@
         <v>0</v>
       </c>
       <c r="Q19" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R19" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="S19" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1909,22 +1849,22 @@
       <c r="F20" s="12">
         <v>0</v>
       </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
         <v>0</v>
       </c>
       <c r="I20" s="15">
         <v>0</v>
       </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14">
         <v>0</v>
       </c>
       <c r="M20" s="14">
@@ -1943,9 +1883,6 @@
         <v>0</v>
       </c>
       <c r="R20" s="14">
-        <v>0</v>
-      </c>
-      <c r="S20" s="14">
         <v>0</v>
       </c>
     </row>
